--- a/votespolled.xlsx
+++ b/votespolled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abnjc\Desktop\Project\Github\Kerala-2021-Assembly-Election-Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66C0BE2-E3E4-485F-A23D-064EE69CBA1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7AB479-E96D-4646-A919-9A6A27D0C94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15480" yWindow="1530" windowWidth="13005" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Constituency</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Elathur</t>
   </si>
   <si>
-    <t>Kozhikode</t>
-  </si>
-  <si>
     <t>Beypore</t>
   </si>
   <si>
@@ -449,6 +446,12 @@
   </si>
   <si>
     <t>Neyyattinkara</t>
+  </si>
+  <si>
+    <t>Kozhikode North</t>
+  </si>
+  <si>
+    <t>Kozhikode South</t>
   </si>
 </sst>
 </file>
@@ -813,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1208,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="B28">
         <v>180909</v>
@@ -1219,7 +1222,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="B29">
         <v>157275</v>
@@ -1233,7 +1236,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>208059</v>
@@ -1247,7 +1250,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>231284</v>
@@ -1261,7 +1264,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>183388</v>
@@ -1275,7 +1278,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>180289</v>
@@ -1289,7 +1292,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>205261</v>
@@ -1303,7 +1306,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>179786</v>
@@ -1317,7 +1320,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>225356</v>
@@ -1331,7 +1334,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>226426</v>
@@ -1345,7 +1348,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>206960</v>
@@ -1359,7 +1362,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>217959</v>
@@ -1373,7 +1376,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>218774</v>
@@ -1387,7 +1390,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>211990</v>
@@ -1401,7 +1404,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>185356</v>
@@ -1415,7 +1418,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>198814</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>197080</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>196087</v>
@@ -1457,7 +1460,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>229458</v>
@@ -1471,7 +1474,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>216480</v>
@@ -1485,7 +1488,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>199960</v>
@@ -1499,7 +1502,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>205291</v>
@@ -1513,7 +1516,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>194108</v>
@@ -1527,7 +1530,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>194858</v>
@@ -1541,7 +1544,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>193992</v>
@@ -1555,7 +1558,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>207723</v>
@@ -1569,7 +1572,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>181172</v>
@@ -1583,7 +1586,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>198223</v>
@@ -1597,7 +1600,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>213231</v>
@@ -1611,7 +1614,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>188534</v>
@@ -1625,7 +1628,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>170119</v>
@@ -1639,7 +1642,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>189203</v>
@@ -1653,7 +1656,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>192592</v>
@@ -1667,7 +1670,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>170984</v>
@@ -1681,7 +1684,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>198086</v>
@@ -1695,7 +1698,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>198258</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>211401</v>
@@ -1723,7 +1726,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>222622</v>
@@ -1737,7 +1740,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>217849</v>
@@ -1751,7 +1754,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>207881</v>
@@ -1765,7 +1768,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>182727</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>210622</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>173965</v>
@@ -1807,7 +1810,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>201886</v>
@@ -1821,7 +1824,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>201035</v>
@@ -1835,7 +1838,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>192767</v>
@@ -1849,7 +1852,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>192933</v>
@@ -1863,7 +1866,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>184514</v>
@@ -1877,7 +1880,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>177927</v>
@@ -1891,7 +1894,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>196483</v>
@@ -1905,7 +1908,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>201707</v>
@@ -1919,7 +1922,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>201317</v>
@@ -1933,7 +1936,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>172086</v>
@@ -1947,7 +1950,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>181842</v>
@@ -1961,7 +1964,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>211581</v>
@@ -1975,7 +1978,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>164534</v>
@@ -1989,7 +1992,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>194031</v>
@@ -2003,7 +2006,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>187701</v>
@@ -2017,7 +2020,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>211861</v>
@@ -2031,7 +2034,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>191116</v>
@@ -2045,7 +2048,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>172640</v>
@@ -2059,7 +2062,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>169309</v>
@@ -2073,7 +2076,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>167459</v>
@@ -2087,7 +2090,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>191210</v>
@@ -2101,7 +2104,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>186276</v>
@@ -2115,7 +2118,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>174354</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>184857</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>187725</v>
@@ -2157,7 +2160,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>164469</v>
@@ -2171,7 +2174,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>168034</v>
@@ -2185,7 +2188,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>165261</v>
@@ -2199,7 +2202,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>175959</v>
@@ -2213,7 +2216,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>171497</v>
@@ -2227,7 +2230,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>186682</v>
@@ -2241,7 +2244,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>189091</v>
@@ -2255,7 +2258,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>200005</v>
@@ -2269,7 +2272,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>213276</v>
@@ -2283,7 +2286,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>201990</v>
@@ -2297,7 +2300,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>178623</v>
@@ -2311,7 +2314,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>167970</v>
@@ -2325,7 +2328,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>196024</v>
@@ -2339,7 +2342,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>213618</v>
@@ -2353,7 +2356,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>204536</v>
@@ -2367,7 +2370,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>206858</v>
@@ -2381,7 +2384,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>212288</v>
@@ -2395,7 +2398,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>193634</v>
@@ -2409,7 +2412,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>237351</v>
@@ -2423,7 +2426,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>202728</v>
@@ -2437,7 +2440,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>208099</v>
@@ -2451,7 +2454,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>213993</v>
@@ -2465,7 +2468,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>181640</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>206117</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>200587</v>
@@ -2507,7 +2510,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>184282</v>
@@ -2521,7 +2524,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>205830</v>
@@ -2535,7 +2538,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>200900</v>
@@ -2549,7 +2552,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124">
         <v>205947</v>
@@ -2563,7 +2566,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>176041</v>
@@ -2577,7 +2580,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126">
         <v>175832</v>
@@ -2591,7 +2594,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>184661</v>
@@ -2605,7 +2608,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128">
         <v>187646</v>
@@ -2619,7 +2622,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129">
         <v>202123</v>
@@ -2633,7 +2636,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130">
         <v>199220</v>
@@ -2647,7 +2650,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131">
         <v>207234</v>
@@ -2661,7 +2664,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132">
         <v>199992</v>
@@ -2675,7 +2678,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133">
         <v>194365</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>208118</v>
@@ -2703,7 +2706,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>203319</v>
@@ -2717,7 +2720,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>204240</v>
@@ -2731,7 +2734,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137">
         <v>193134</v>
@@ -2745,7 +2748,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>219131</v>
@@ -2759,7 +2762,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139">
         <v>195827</v>
@@ -2773,7 +2776,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>218656</v>
@@ -2787,7 +2790,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>186705</v>
